--- a/InputData/indst/PERAC/Step3/Potential Perc Reduction for Cement.xlsx
+++ b/InputData/indst/PERAC/Step3/Potential Perc Reduction for Cement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="19140" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="160" windowWidth="19140" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,12 @@
   <definedNames>
     <definedName name="Regions">'Country Selector'!$D$2:$D$18</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,7 +147,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,16 +244,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -295,9 +300,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,9 +594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
@@ -656,6 +658,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -664,17 +671,17 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,6 +784,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -784,14 +796,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -816,11 +830,11 @@
         <v>0.83</v>
       </c>
       <c r="C2" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="10">
         <f>(B2-C2)/B2</f>
-        <v>0.15662650602409639</v>
+        <v>0.27710843373493976</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -831,11 +845,11 @@
         <v>0.74</v>
       </c>
       <c r="C3" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D19" si="0">(B3-C3)/B3</f>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -846,11 +860,11 @@
         <v>0.84</v>
       </c>
       <c r="C4" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -861,11 +875,11 @@
         <v>0.74</v>
       </c>
       <c r="C5" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -876,11 +890,11 @@
         <v>0.74</v>
       </c>
       <c r="C6" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -891,11 +905,11 @@
         <v>0.84</v>
       </c>
       <c r="C7" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -906,11 +920,11 @@
         <v>0.84</v>
       </c>
       <c r="C8" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -921,11 +935,11 @@
         <v>0.8</v>
       </c>
       <c r="C9" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>0.12500000000000011</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -936,11 +950,11 @@
         <v>0.84</v>
       </c>
       <c r="C10" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -951,11 +965,11 @@
         <v>0.84</v>
       </c>
       <c r="C11" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -966,11 +980,11 @@
         <v>0.79</v>
       </c>
       <c r="C12" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
-        <v>0.11392405063291149</v>
+        <v>0.24050632911392411</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -981,11 +995,11 @@
         <v>0.74</v>
       </c>
       <c r="C13" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
-        <v>5.4054054054054106E-2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -996,11 +1010,11 @@
         <v>0.79</v>
       </c>
       <c r="C14" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
-        <v>0.11392405063291149</v>
+        <v>0.24050632911392411</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1011,11 +1025,11 @@
         <v>0.76</v>
       </c>
       <c r="C15" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>7.8947368421052697E-2</v>
+        <v>0.21052631578947373</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1027,11 +1041,11 @@
         <v>0.8</v>
       </c>
       <c r="C16" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="0"/>
-        <v>0.12500000000000011</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1042,11 +1056,11 @@
         <v>0.84</v>
       </c>
       <c r="C17" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1057,11 +1071,11 @@
         <v>0.84</v>
       </c>
       <c r="C18" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="0"/>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1072,30 +1086,37 @@
         <v>0.78</v>
       </c>
       <c r="C19" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="0"/>
-        <v>0.10256410256410266</v>
+        <v>0.23076923076923084</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,10 +1131,15 @@
       </c>
       <c r="B2" s="12">
         <f>VLOOKUP('Country Selector'!B1,'Cement Perc Reductions'!A1:D19,4,FALSE)</f>
-        <v>0.16666666666666669</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>